--- a/biology/Botanique/Liste_des_Cerambycinae_de_Guyane/Liste_des_Cerambycinae_de_Guyane.xlsx
+++ b/biology/Botanique/Liste_des_Cerambycinae_de_Guyane/Liste_des_Cerambycinae_de_Guyane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,11 +518,48 @@
           <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom de la tribu est indiqué en gras.
-A
-Achryson, ACHRYSONINI
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la tribu est indiqué en gras.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Achryson, ACHRYSONINI
 Achryson surinamum (Linnaeus, 1767)
 Acyphoderes, RHINOTRAGINI
 Acyphoderes abdominalis (Olivier, 1795)
@@ -523,12 +572,82 @@
 Atiaia, Cerambycini
 Atiaia consobrina (Gahan, 1892)
 			Atiaia consobrina - Muséum de Toulouse
-B
-Batus (Thunberg, 1822); Trachyderini
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Batus (Thunberg, 1822); Trachyderini
 Batus barbicornis (Linné, 1764)
 			Batus barbicornis - Muséum de Toulouse
-C
-Callichroma, Callichromatini
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Callichroma, Callichromatini
 Callichroma auricomum (Linné, 1767)
 Callichroma velutinum (Fabricius, 1775)
 			Callichroma auricomum - Muséum de Toulouse
@@ -558,50 +677,292 @@
 Criodion,  Cerambycini
 Criodion tuberculatum Gahan, 1892.
 Ctenodes, Trachyderini
-Ctenodes decemmaculata Olivier, 1807.
-D
-Deltosoma, PLATYPTERINI
+Ctenodes decemmaculata Olivier, 1807.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deltosoma, PLATYPTERINI
 Deltosoma lacordairei (Thompson, 1864)
 Diploschema, Torneutini
 Diploschema klagesi (Lane, 1966)
 Dubiefostola, Hesperophanini
 Dubiefostola auricollis (Tavakilian &amp; Monné, 1991)
 			Dubiefostola auricollis - Muséum de Toulouse
-E
-Eburodacrys, EBURIINI
-Eburodacrys sexmaculatus Olivier, 1790.
-G
-Gigantotrichoderes, Torneutini
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Eburodacrys, EBURIINI
+Eburodacrys sexmaculatus Olivier, 1790.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gigantotrichoderes, Torneutini
 Gigantotrichoderes conicicollis Tippmann, 1953.
 Gnathopraxithea, Torneutini
 Gnathopraxithea sarryi Seabra &amp; Tavakilian, 1986.
 Gnomidolon, IBIDIONINI
 Gnomidolon biarcuatum White, 1855.
 			Gigantotrichoderes conicicollis - Muséum de Toulouse
-H
-Haruspex, PIEZOCERINI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haruspex, PIEZOCERINI
 Haruspex bivittis (White, 1855)
 Hespereburia, Hesperophanini
 Hespereburia balouporum (Tavakilian &amp; Monné, 1990)
 Hirtobrasilianus, Cerambycini
 Hirtobrasilianus villiersi (Fragoso &amp; Tavakilian, 1985)
 			Hirtobrasilianus villiersi - Muséum de Toulouse
-J
-Juiaparus, Cerambycini
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juiaparus, Cerambycini
 Juiaparus batus  (Linné, 1758)
 Jupoata, Cerambycini
 Jupoata rufipennis (Gory, 1831)
 			Juiaparus batus - Muséum de Toulouse
 			Jupoata rufipennis - Muséum de Toulouse
-L
-Liosteburia, HESPEROPHANINI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Liosteburia, HESPEROPHANINI
 Liosteburia bleuzeni Tavakilian &amp; Monné, 1990.
 Lissonotus, LISSONOTINI
 Lissonotus equestris Fabricius, 1787.
 Listroptera, CLEOMENINI
-Listroptera tenebricosa Olivier, 1790.
-M
-Macrambyx,  Cerambycini
+Listroptera tenebricosa Olivier, 1790.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macrambyx,  Cerambycini
 Macrambyx suturalis Gory, 1832.
 Macrobrasilianus,  Cerambycini
 Macrobrasilianus bellator Audinet-Serville, 1834.
@@ -619,21 +980,124 @@
 Mionochroma, Callichromatini
 Mionochroma aureotinctum (Bates, 1870)
 			Mionochroma aureotinctum - Muséum de Toulouse
-N
-Nyssicus, Elaphidiini
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nyssicus, Elaphidiini
 Nyssicus conspicillatus Erichson, 1847
-Nyssicus aureopilosus Lacey, 1949.
-O
-Odontocera, RHINOTRAGINI
+Nyssicus aureopilosus Lacey, 1949.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Odontocera, RHINOTRAGINI
 Odontocera fasciata Olivier, 1775.
 Opades, EBURIINI
 Opades costipennis Buquet, 1844.
 Orthostoma, COMPSOCERINI :
 Orthostoma albicorne Fabricius, 1801.
 Oxymerus, Trachyderini
-Oxymerus lineatus Dupont, 1838.
-P
-Paraliostola, Hesperophanini
+Oxymerus lineatus Dupont, 1838.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paraliostola, Hesperophanini
 Paraliostola durantoni (Tavakilian &amp; Monné, 1990)
 Periboeum, Elaphidiini
 Periboeum pubescens (Olivier, 1790)
@@ -656,11 +1120,80 @@
 Pseuderiphus collaris( Erichson, 1848)
 			Plocaederus bipartitus - Muséum de Toulouse
 			Praxithea travassosi - Muséum de Toulouse
-R
-Rhinotragus, RHINOTRAGINI
-Rhinotragus lucasi Thompson, 1860.
-S
-Sphecomorpha, RHINOTRAGINI
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Rhinotragus, RHINOTRAGINI
+Rhinotragus lucasi Thompson, 1860.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sphecomorpha, RHINOTRAGINI
 Sphecomorpha chalybea Newman, 1838.
 Stenygra, PLATYARTHRINI
 Stenygra angustata Olivier, 1795.
@@ -671,48 +1204,118 @@
 Stratone, HETEROPSINI
 Stratone transversalis Chevrolat, 1862.
 Styliceps, EBURIINI
-Styliceps striatus Voet, 1778.
-T
-Thoracibidion, IBIDIONINI
+Styliceps striatus Voet, 1778.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Thoracibidion, IBIDIONINI
 Thoracibidion sriatocolle White, 1855.
 Trachyderes, Trachyderini
 Trachyderes succinctus Linnaeus, 1758
 Trachyderes melas Bates, 1870.
 Tropidosoma, Trachyderini
-Tropidosoma dilaticorne Gory, 1832.
-XZ
-Xenambyx, Torneutini
+Tropidosoma dilaticorne Gory, 1832.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Genres rencontrés en Guyane française par ordre alphabétique</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>XZ</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Xenambyx, Torneutini
 Xenambyx lansbergei Thompson, 1865.
 Zelliboria, PIEZOCERINI
 Zelliboria daedalea Perty, 1832.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_Cerambycinae_de_Guyane</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_Cerambycinae_de_Guyane</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Articles liés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Galerie des Cerambycidae
 Liste des mantes de Guyane
